--- a/MS/张渊_1501220101_第8次习题作业_12.26_12.29.xlsx
+++ b/MS/张渊_1501220101_第8次习题作业_12.26_12.29.xlsx
@@ -4,34 +4,35 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="12.26" sheetId="1" r:id="rId1"/>
-    <sheet name="12.29" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="12.29 posterior" sheetId="4" r:id="rId2"/>
+    <sheet name="12.29.c.d.e" sheetId="3" r:id="rId3"/>
+    <sheet name="19.29.a.b" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="invest" localSheetId="0">'12.26'!$H$4</definedName>
     <definedName name="MinimizeCosts" localSheetId="0">FALSE</definedName>
-    <definedName name="MinimizeCosts" localSheetId="1">FALSE</definedName>
+    <definedName name="MinimizeCosts" localSheetId="2">FALSE</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'12.26'!TreeDiagram</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'12.29'!TreeDiagram</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'12.29.c.d.e'!TreeDiagram</definedName>
     <definedName name="TreeData" localSheetId="0">'12.26'!$GH$1001:$GV$1035</definedName>
-    <definedName name="TreeData" localSheetId="1">'12.29'!$GH$1003:$GV$1017</definedName>
+    <definedName name="TreeData" localSheetId="2">'12.29.c.d.e'!$GH$1001:$GV$1017</definedName>
     <definedName name="TreeDiagBase" localSheetId="0">'12.26'!$D$17</definedName>
-    <definedName name="TreeDiagBase" localSheetId="1">'12.29'!#REF!</definedName>
+    <definedName name="TreeDiagBase" localSheetId="2">'12.29.c.d.e'!$C$19</definedName>
     <definedName name="TreeDiagram" localSheetId="0">'12.26'!$D$17:$V$115</definedName>
-    <definedName name="TreeDiagram" localSheetId="1">'12.29'!$B$7:$T$45</definedName>
+    <definedName name="TreeDiagram" localSheetId="2">'12.29.c.d.e'!$C$19:$U$62</definedName>
     <definedName name="UseExpUtility" localSheetId="0">FALSE</definedName>
-    <definedName name="UseExpUtility" localSheetId="1">FALSE</definedName>
+    <definedName name="UseExpUtility" localSheetId="2">FALSE</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -137,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>习题12.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,12 +177,99 @@
     <t>不接受</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Template for Posterior Probabilities</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>P(Finding | State)</t>
+  </si>
+  <si>
+    <t>State of</t>
+  </si>
+  <si>
+    <t>Prior</t>
+  </si>
+  <si>
+    <t>Finding</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Posterior</t>
+  </si>
+  <si>
+    <t>P(State | Finding)</t>
+  </si>
+  <si>
+    <t>Probabilities:</t>
+  </si>
+  <si>
+    <t>State of Nature</t>
+  </si>
+  <si>
+    <t>P(Finding)</t>
+  </si>
+  <si>
+    <t>试销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试销决策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备择方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先验概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +294,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Geneva"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +341,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -239,13 +374,298 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,8 +688,144 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal_Ch.10 - Decision Analysis.xls" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4758,27 +5314,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1192" name="Oval 168"/>
+        <xdr:cNvPr id="1182" name="Oval 158"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3190875" y="2914650"/>
+          <a:off x="3876675" y="5657850"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4801,27 +5357,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1193" name="Line 169"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1819275" y="2990850"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1183" name="Line 159"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="5734050"/>
           <a:ext cx="1371600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4844,28 +5400,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1194" name="Line 170"/>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1184" name="Line 160"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1524000" y="2990850"/>
-          <a:ext cx="295275" cy="1714500"/>
+          <a:off x="2209800" y="5734050"/>
+          <a:ext cx="295275" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4887,27 +5443,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1195" name="Rectangle 171"/>
+        <xdr:cNvPr id="1185" name="Rectangle 161"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3190875" y="6343650"/>
+          <a:off x="3876675" y="9601200"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4930,27 +5486,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1196" name="Line 172"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1819275" y="6419850"/>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1186" name="Line 162"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="9677400"/>
           <a:ext cx="1371600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4973,28 +5529,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1197" name="Line 173"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1524000" y="4705350"/>
-          <a:ext cx="295275" cy="1714500"/>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1187" name="Line 163"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2209800" y="7620000"/>
+          <a:ext cx="295275" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5016,27 +5572,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1198" name="Rectangle 174"/>
+        <xdr:cNvPr id="1188" name="Rectangle 164"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5010150" y="2057400"/>
+          <a:off x="5695950" y="4457700"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5059,15 +5615,445 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1189" name="Line 165"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4324350" y="4533900"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1190" name="Line 166"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4029075" y="4533900"/>
+          <a:ext cx="295275" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1191" name="Rectangle 167"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5695950" y="7029450"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1192" name="Line 168"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4324350" y="7105650"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1193" name="Line 169"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4029075" y="5734050"/>
+          <a:ext cx="295275" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1194" name="Oval 170"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7515225" y="3771900"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1195" name="Line 171"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6143625" y="3848100"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1196" name="Line 172"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5848350" y="3848100"/>
+          <a:ext cx="295275" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1197" name="Line 173"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7515225" y="5143500"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1198" name="Line 174"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7667625" y="5219700"/>
+          <a:ext cx="1666875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5079,7 +6065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3638550" y="2133600"/>
+          <a:off x="6143625" y="5219700"/>
           <a:ext cx="1371600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5102,15 +6088,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5121,9 +6107,138 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5848350" y="4533900"/>
+          <a:ext cx="295275" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1201" name="Line 177"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9334500" y="3429000"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1202" name="Line 178"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="3505200"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1203" name="Line 179"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3343275" y="2133600"/>
-          <a:ext cx="295275" cy="857250"/>
+          <a:off x="7667625" y="3505200"/>
+          <a:ext cx="295275" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5145,27 +6260,1360 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1201" name="Rectangle 177"/>
+        <xdr:cNvPr id="1204" name="Line 180"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9334500" y="4286250"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1205" name="Line 181"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="4362450"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1206" name="Line 182"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7667625" y="3848100"/>
+          <a:ext cx="295275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1207" name="Oval 183"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5010150" y="3943350"/>
+          <a:off x="7515225" y="6343650"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1208" name="Line 184"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6143625" y="6419850"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1209" name="Line 185"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5848350" y="6419850"/>
+          <a:ext cx="295275" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1210" name="Line 186"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7515225" y="7715250"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1211" name="Line 187"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7667625" y="7791450"/>
+          <a:ext cx="1666875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1212" name="Line 188"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6143625" y="7791450"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1213" name="Line 189"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5848350" y="7105650"/>
+          <a:ext cx="295275" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1214" name="Line 190"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9334500" y="6000750"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1215" name="Line 191"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="6076950"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1216" name="Line 192"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7667625" y="6076950"/>
+          <a:ext cx="295275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1217" name="Line 193"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9334500" y="6858000"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1218" name="Line 194"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7962900" y="6934200"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1219" name="Line 195"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7667625" y="6419850"/>
+          <a:ext cx="295275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1220" name="Oval 196"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5695950" y="8915400"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1221" name="Line 197"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4324350" y="8991600"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1222" name="Line 198"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4029075" y="8991600"/>
+          <a:ext cx="295275" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1223" name="Line 199"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5695950" y="10287000"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1224" name="Line 200"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5848350" y="10363200"/>
+          <a:ext cx="3486150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1225" name="Line 201"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4324350" y="10363200"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1226" name="Line 202"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4029075" y="9677400"/>
+          <a:ext cx="295275" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1227" name="Line 203"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7515225" y="8572500"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1228" name="Line 204"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7667625" y="8648700"/>
+          <a:ext cx="1666875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1229" name="Line 205"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6143625" y="8648700"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1230" name="Line 206"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="5848350" y="8648700"/>
+          <a:ext cx="295275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1231" name="Line 207"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7515225" y="9429750"/>
+          <a:ext cx="0" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1232" name="Line 208"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7667625" y="9505950"/>
+          <a:ext cx="1666875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dot"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1233" name="Line 209"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6143625" y="9505950"/>
+          <a:ext cx="1371600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1234" name="Line 210"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5848350" y="8991600"/>
+          <a:ext cx="295275" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1235" name="Rectangle 211"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2057400" y="7543800"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5188,1477 +7636,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1202" name="Line 178"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3638550" y="4019550"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1203" name="Line 179"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3343275" y="2990850"/>
-          <a:ext cx="295275" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1204" name="Oval 180"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6829425" y="1371600"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1205" name="Line 181"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5457825" y="1447800"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1206" name="Line 182"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="5162550" y="1447800"/>
-          <a:ext cx="295275" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1207" name="Line 183"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6829425" y="2743200"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1208" name="Line 184"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6981825" y="2819400"/>
-          <a:ext cx="1666875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dot"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1209" name="Line 185"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5457825" y="2819400"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1210" name="Line 186"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5162550" y="2133600"/>
-          <a:ext cx="295275" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1211" name="Line 187"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6829425" y="3600450"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1212" name="Line 188"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6981825" y="3676650"/>
-          <a:ext cx="1666875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dot"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1213" name="Line 189"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5457825" y="3676650"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1214" name="Line 190"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="5162550" y="3676650"/>
-          <a:ext cx="295275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1215" name="Line 191"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6829425" y="4457700"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1216" name="Line 192"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6981825" y="4533900"/>
-          <a:ext cx="1666875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dot"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1217" name="Line 193"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5457825" y="4533900"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1218" name="Line 194"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5162550" y="4019550"/>
-          <a:ext cx="295275" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1219" name="Oval 195"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5010150" y="5657850"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1220" name="Line 196"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3638550" y="5734050"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1221" name="Line 197"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="3343275" y="5734050"/>
-          <a:ext cx="295275" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1222" name="Line 198"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5010150" y="7029450"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1223" name="Line 199"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5162550" y="7105650"/>
-          <a:ext cx="3486150" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dot"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1224" name="Line 200"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3638550" y="7105650"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1225" name="Line 201"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3343275" y="6419850"/>
-          <a:ext cx="295275" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1226" name="Line 202"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6829425" y="5314950"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1227" name="Line 203"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6981825" y="5391150"/>
-          <a:ext cx="1666875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dot"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1228" name="Line 204"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5457825" y="5391150"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1229" name="Line 205"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="5162550" y="5391150"/>
-          <a:ext cx="295275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1230" name="Line 206"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6829425" y="6172200"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1231" name="Line 207"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6981825" y="6248400"/>
-          <a:ext cx="1666875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dot"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1232" name="Line 208"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5457825" y="6248400"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1233" name="Line 209"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5162550" y="5734050"/>
-          <a:ext cx="295275" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1234" name="Line 210"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8648700" y="1028700"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1235" name="Line 211"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7277100" y="1104900"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6669,223 +7655,8 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="6981825" y="1104900"/>
-          <a:ext cx="295275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1237" name="Line 213"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8648700" y="1885950"/>
-          <a:ext cx="0" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1238" name="Line 214"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7277100" y="1962150"/>
-          <a:ext cx="1371600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1239" name="Line 215"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6981825" y="1447800"/>
-          <a:ext cx="295275" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1240" name="Rectangle 216"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="4629150"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1241" name="Line 217"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="4705350"/>
+        <a:xfrm>
+          <a:off x="1371600" y="7620000"/>
           <a:ext cx="685800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7196,8 +7967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GV1035"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9482,402 +10253,1130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GV1017"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8"/>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8"/>
+      <c r="B6" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8"/>
+      <c r="B12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8"/>
+      <c r="B13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8"/>
+      <c r="B14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="30" t="str">
+        <f>IF(B6="","",B6)</f>
+        <v>成功</v>
+      </c>
+      <c r="E14" s="31" t="str">
+        <f>IF(B7="","",B7)</f>
+        <v>不成功</v>
+      </c>
+      <c r="F14" s="31" t="str">
+        <f>IF(B8="","",B8)</f>
+        <v/>
+      </c>
+      <c r="G14" s="31" t="str">
+        <f>IF(B9="","",B9)</f>
+        <v/>
+      </c>
+      <c r="H14" s="32" t="str">
+        <f>IF(B10="","",B10)</f>
+        <v/>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="33" t="str">
+        <f>IF(D5="","",D5)</f>
+        <v>接受</v>
+      </c>
+      <c r="C15" s="34">
+        <f>IF(D6="","",SUMPRODUCT(C6:C10,D6:D10))</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D15" s="35">
+        <f>IF(D6="","",C6*D6/SUMPRODUCT(C6:C10,D6:D10))</f>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="E15" s="35">
+        <f>IF(D7="","",C7*D7/SUMPRODUCT(C6:C10,D6:D10))</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="F15" s="35" t="str">
+        <f>IF(D8="","",C8*D8/SUMPRODUCT(C6:C10,D6:D10))</f>
+        <v/>
+      </c>
+      <c r="G15" s="35" t="str">
+        <f>IF(D9="","",C9*D9/SUMPRODUCT(C6:C10,D6:D10))</f>
+        <v/>
+      </c>
+      <c r="H15" s="36" t="str">
+        <f>IF(D10="","",C10*D10/SUMPRODUCT(C6:C10,D6:D10))</f>
+        <v/>
+      </c>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8"/>
+      <c r="B16" s="33" t="str">
+        <f>IF(E5="","",E5)</f>
+        <v>不接受</v>
+      </c>
+      <c r="C16" s="37">
+        <f>IF(E6="","",SUMPRODUCT(C6:C10,E6:E10))</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D16" s="35">
+        <f>IF(E6="","",C6*E6/SUMPRODUCT(C6:C10,E6:E10))</f>
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="E16" s="35">
+        <f>IF(E7="","",C7*E7/SUMPRODUCT(C6:C10,E6:E10))</f>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="F16" s="35" t="str">
+        <f>IF(E8="","",C8*E8/SUMPRODUCT(C6:C10,E6:E10))</f>
+        <v/>
+      </c>
+      <c r="G16" s="35" t="str">
+        <f>IF(E9="","",C9*E9/SUMPRODUCT(C6:C10,E6:E10))</f>
+        <v/>
+      </c>
+      <c r="H16" s="36" t="str">
+        <f>IF(E10="","",C10*E10/SUMPRODUCT(C6:C10,E6:E10))</f>
+        <v/>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8"/>
+      <c r="B17" s="33" t="str">
+        <f>IF(F5="","",F5)</f>
+        <v/>
+      </c>
+      <c r="C17" s="37" t="str">
+        <f>IF(F6="","",SUMPRODUCT(C6:C10,F6:F10))</f>
+        <v/>
+      </c>
+      <c r="D17" s="35" t="str">
+        <f>IF(F6="","",C6*F6/SUMPRODUCT(C6:C10,F6:F10))</f>
+        <v/>
+      </c>
+      <c r="E17" s="35" t="str">
+        <f>IF(F7="","",C7*F7/SUMPRODUCT(C6:C10,F6:F10))</f>
+        <v/>
+      </c>
+      <c r="F17" s="35" t="str">
+        <f>IF(F8="","",C8*F8/SUMPRODUCT(C6:C10,F6:F10))</f>
+        <v/>
+      </c>
+      <c r="G17" s="35" t="str">
+        <f>IF(F9="","",C9*F9/SUMPRODUCT(C6:C10,F6:F10))</f>
+        <v/>
+      </c>
+      <c r="H17" s="36" t="str">
+        <f>IF(F10="","",C10*F10/SUMPRODUCT(C6:C10,F6:F10))</f>
+        <v/>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8"/>
+      <c r="B18" s="33" t="str">
+        <f>IF(G5="","",G5)</f>
+        <v/>
+      </c>
+      <c r="C18" s="37" t="str">
+        <f>IF(G6="","",SUMPRODUCT(C6:C10,G6:G10))</f>
+        <v/>
+      </c>
+      <c r="D18" s="35" t="str">
+        <f>IF(G6="","",C6*G6/SUMPRODUCT(C6:C10,G6:G10))</f>
+        <v/>
+      </c>
+      <c r="E18" s="35" t="str">
+        <f>IF(G7="","",C7*G7/SUMPRODUCT(C6:C10,G6:G10))</f>
+        <v/>
+      </c>
+      <c r="F18" s="35" t="str">
+        <f>IF(G8="","",C8*G8/SUMPRODUCT(C6:C10,G6:G10))</f>
+        <v/>
+      </c>
+      <c r="G18" s="35" t="str">
+        <f>IF(G9="","",C9*G9/SUMPRODUCT(C6:C10,G6:G10))</f>
+        <v/>
+      </c>
+      <c r="H18" s="36" t="str">
+        <f>IF(G10="","",C10*G10/SUMPRODUCT(C6:C10,G6:G10))</f>
+        <v/>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="38" t="str">
+        <f>IF(H5="","",H5)</f>
+        <v/>
+      </c>
+      <c r="C19" s="39" t="str">
+        <f>IF(H6="","",SUMPRODUCT(C6:C10,H6:H10))</f>
+        <v/>
+      </c>
+      <c r="D19" s="40" t="str">
+        <f>IF(H6="","",C6*H6/SUMPRODUCT(C6:C10,H6:H10))</f>
+        <v/>
+      </c>
+      <c r="E19" s="40" t="str">
+        <f>IF(H7="","",C7*H7/SUMPRODUCT(C6:C10,H6:H10))</f>
+        <v/>
+      </c>
+      <c r="F19" s="40" t="str">
+        <f>IF(H8="","",C8*H8/SUMPRODUCT(C6:C10,H6:H10))</f>
+        <v/>
+      </c>
+      <c r="G19" s="40" t="str">
+        <f>IF(H9="","",C9*H9/SUMPRODUCT(C6:C10,H6:H10))</f>
+        <v/>
+      </c>
+      <c r="H19" s="41" t="str">
+        <f>IF(H10="","",C10*H10/SUMPRODUCT(C6:C10,H6:H10))</f>
+        <v/>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:GV1017"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="2.25" customWidth="1"/>
-    <col min="4" max="4" width="3.625" customWidth="1"/>
-    <col min="7" max="7" width="2.25" customWidth="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
-    <col min="11" max="11" width="2.25" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="15" max="15" width="2.25" customWidth="1"/>
-    <col min="16" max="16" width="3.625" customWidth="1"/>
-    <col min="19" max="19" width="2.25" customWidth="1"/>
+    <col min="4" max="4" width="2.25" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="2.25" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="12" max="12" width="2.25" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="16" max="16" width="2.25" customWidth="1"/>
+    <col min="17" max="17" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="44" t="str">
+        <f xml:space="preserve"> IF(D45=1,C3, C4)</f>
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21">
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21">
+      <c r="R20" t="str">
+        <f>B5</f>
+        <v>成功</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="U21">
+        <f>SUM(R22,N24,J28,F35)</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="N22" t="str">
+        <f>C5</f>
+        <v>推新品</v>
+      </c>
+      <c r="R22">
+        <f>G4</f>
+        <v>4000</v>
+      </c>
+      <c r="S22">
+        <f>U21</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>IF(ABS(1-SUM(R19,R24))&lt;=0.00001,SUM(R19*S22,R24*S27),NA())</f>
+        <v>2491</v>
+      </c>
+      <c r="R24">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="J25">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R25" t="str">
+        <f>B6</f>
+        <v>不成功</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="J26" t="str">
+        <f>B3</f>
+        <v>接受</v>
+      </c>
+      <c r="U26">
+        <f>SUM(R27,N24,J28,F35)</f>
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21">
+      <c r="L27">
+        <f>IF(K28=O24,1,IF(K28=O32,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <f>-G5</f>
+        <v>-1500</v>
+      </c>
+      <c r="S27">
+        <f>U26</f>
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>MAX(O24,O32)</f>
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21">
+      <c r="N30" t="str">
+        <f>C6</f>
+        <v>不推新品</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21">
+      <c r="U31">
+        <f>SUM(N32,J28,F35)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21">
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>U31</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21">
+      <c r="F33" t="str">
+        <f>C3</f>
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21">
+      <c r="R34">
+        <v>0.21049999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21">
+      <c r="F35">
+        <f>-G3</f>
+        <v>-200</v>
+      </c>
+      <c r="G35">
+        <f>IF(ABS(1-SUM(J25,J40))&lt;=0.00001,SUM(J25*K28,J40*K43),NA())</f>
+        <v>1212.7750000000001</v>
+      </c>
+      <c r="R35" t="str">
+        <f>B5</f>
+        <v>成功</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21">
+      <c r="U36">
+        <f>SUM(R37,N39,J43,F35)</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="N37" t="str">
+        <f>C5</f>
+        <v>推新品</v>
+      </c>
+      <c r="R37">
+        <f>G4</f>
+        <v>4000</v>
+      </c>
+      <c r="S37">
+        <f>U36</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>IF(ABS(1-SUM(R34,R39))&lt;=0.00001,SUM(R34*S37,R39*S42),NA())</f>
+        <v>-542.24999999999989</v>
+      </c>
+      <c r="R39">
+        <v>0.78949999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="J40">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R40" t="str">
+        <f>B6</f>
+        <v>不成功</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="J41" t="str">
+        <f>B4</f>
+        <v>不接受</v>
+      </c>
+      <c r="U41">
+        <f>SUM(R42,N39,J43,F35)</f>
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21">
+      <c r="L42">
+        <f>IF(K43=O39,1,IF(K43=O47,2))</f>
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <f>-G5</f>
+        <v>-1500</v>
+      </c>
+      <c r="S42">
+        <f>U41</f>
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f>MAX(O39,O47)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21">
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="3:21">
+      <c r="D45">
+        <f>IF(C46=G35,1,IF(C46=G58,2))</f>
+        <v>2</v>
+      </c>
+      <c r="N45" t="str">
+        <f>C6</f>
+        <v>不推新品</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21">
+      <c r="C46">
+        <f>MAX(G35,G58)</f>
+        <v>1250</v>
+      </c>
+      <c r="U46">
+        <f>SUM(N47,J43,F35)</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f>U46</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21">
+      <c r="N49">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="str">
-        <f>B8</f>
+    <row r="50" spans="3:21">
+      <c r="N50" t="str">
+        <f>B5</f>
         <v>成功</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9">
-        <f>SUM(Q10,M12,I16,E21)</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="M10" t="str">
-        <f>E8</f>
+    <row r="51" spans="3:21">
+      <c r="U51">
+        <f>SUM(N52,J54,F58)</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21">
+      <c r="J52" t="str">
+        <f>C5</f>
         <v>推新品</v>
       </c>
-      <c r="Q10">
+      <c r="N52">
+        <f>G4</f>
         <v>4000</v>
       </c>
-      <c r="R10">
-        <f>T9</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>IF(ABS(1-SUM(Q7,Q12))&lt;=0.00001,SUM(Q7*R10,Q12*R15),NA())</f>
-        <v>1050</v>
-      </c>
-      <c r="Q12">
+      <c r="O52">
+        <f>U51</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>IF(ABS(1-SUM(N49,N54))&lt;=0.00001,SUM(N49*O52,N54*O57),NA())</f>
+        <v>1250</v>
+      </c>
+      <c r="N54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="I13">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="Q13" t="str">
-        <f>B9</f>
+    <row r="55" spans="3:21">
+      <c r="N55" t="str">
+        <f>B6</f>
         <v>不成功</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="I14" t="str">
-        <f>B6</f>
-        <v>接受</v>
-      </c>
-      <c r="T14">
-        <f>SUM(Q15,M12,I16,E21)</f>
-        <v>-1700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="K15">
-        <f>IF(J16=N12,1,IF(J16=N20,2))</f>
+    <row r="56" spans="3:21">
+      <c r="F56" t="str">
+        <f>C4</f>
+        <v>不试销</v>
+      </c>
+      <c r="U56">
+        <f>SUM(N57,J54,F58)</f>
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21">
+      <c r="H57">
+        <f>IF(G58=K54,1,IF(G58=K62,2))</f>
         <v>1</v>
       </c>
-      <c r="Q15">
+      <c r="N57">
+        <f>-G5</f>
         <v>-1500</v>
       </c>
-      <c r="R15">
-        <f>T14</f>
-        <v>-1700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>MAX(N12,N20)</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="M18" t="str">
-        <f>E9</f>
+      <c r="O57">
+        <f>U56</f>
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>MAX(K54,K62)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21">
+      <c r="J60" t="str">
+        <f>C6</f>
         <v>不推新品</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
-      <c r="E19" t="str">
-        <f>E6</f>
+    <row r="61" spans="3:21">
+      <c r="U61">
+        <f>SUM(J62,F58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f>U61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21">
+      <c r="C64" t="str">
+        <f>C11</f>
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="dataTable" ref="C65:C81" dt2D="0" dtr="0" r1="G3"/>
         <v>试销</v>
       </c>
-      <c r="T19">
-        <f>SUM(M20,I16,E21)</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>T19</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="E21">
-        <v>-200</v>
-      </c>
-      <c r="F21">
-        <f>IF(ABS(1-SUM(I13,I24))&lt;=0.00001,SUM(I13*J16,I24*J27),NA())</f>
-        <v>456.25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="M23" t="str">
-        <f>E8</f>
-        <v>推新品</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="I24">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="T24">
-        <f>SUM(M25,I27,E21)</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
-      <c r="I25" t="str">
-        <f>B7</f>
-        <v>不接受</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f>T24</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20">
-      <c r="K26">
-        <f>IF(J27=N25,1,IF(J27=N30,2))</f>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>60</v>
+      </c>
+      <c r="C66" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>70</v>
+      </c>
+      <c r="C67" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68">
+        <v>80</v>
+      </c>
+      <c r="C68" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69">
+        <v>90</v>
+      </c>
+      <c r="C69" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71">
+        <v>110</v>
+      </c>
+      <c r="C71" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72">
+        <v>120</v>
+      </c>
+      <c r="C72" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73">
+        <v>130</v>
+      </c>
+      <c r="C73" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74">
+        <v>140</v>
+      </c>
+      <c r="C74" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75">
+        <v>150</v>
+      </c>
+      <c r="C75" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76">
+        <v>160</v>
+      </c>
+      <c r="C76" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77">
+        <v>170</v>
+      </c>
+      <c r="C77" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78">
+        <v>180</v>
+      </c>
+      <c r="C78" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>190</v>
+      </c>
+      <c r="C79" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80">
+        <v>200</v>
+      </c>
+      <c r="C80" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>210</v>
+      </c>
+      <c r="C81" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="1000" spans="189:204">
+      <c r="GH1000" t="s">
+        <v>0</v>
+      </c>
+      <c r="GI1000" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f>MAX(N25,N30)</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="M28" t="str">
-        <f>E9</f>
-        <v>不推新品</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="2"/>
-      <c r="T29">
-        <f>SUM(M30,I27,E21)</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="C30">
-        <f>IF(B31=F21,1,IF(B31=F41,2))</f>
+      <c r="GJ1000" t="s">
         <v>2</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f>T29</f>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31">
-        <f>MAX(F21,F41)</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="M32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="5:20">
-      <c r="M33" t="str">
-        <f>B8</f>
-        <v>成功</v>
-      </c>
-    </row>
-    <row r="34" spans="5:20">
-      <c r="T34">
-        <f>SUM(M35,I37,E41)</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="35" spans="5:20">
-      <c r="I35" t="str">
-        <f>E8</f>
-        <v>推新品</v>
-      </c>
-      <c r="M35">
-        <v>4000</v>
-      </c>
-      <c r="N35">
-        <f>T34</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="37" spans="5:20">
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f>IF(ABS(1-SUM(M32,M37))&lt;=0.00001,SUM(M32*N35,M37*N40),NA())</f>
-        <v>1250</v>
-      </c>
-      <c r="M37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="5:20">
-      <c r="M38" t="str">
-        <f>B9</f>
-        <v>不成功</v>
-      </c>
-    </row>
-    <row r="39" spans="5:20">
-      <c r="E39" t="str">
-        <f>E7</f>
-        <v>不试销</v>
-      </c>
-      <c r="T39">
-        <f>SUM(M40,I37,E41)</f>
-        <v>-1500</v>
-      </c>
-    </row>
-    <row r="40" spans="5:20">
-      <c r="G40">
-        <f>IF(F41=J37,1,IF(F41=J45,2))</f>
+      <c r="GK1000" t="s">
+        <v>3</v>
+      </c>
+      <c r="GL1000" t="s">
+        <v>4</v>
+      </c>
+      <c r="GM1000" t="s">
+        <v>5</v>
+      </c>
+      <c r="GN1000" t="s">
+        <v>6</v>
+      </c>
+      <c r="GO1000" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP1000" t="s">
+        <v>8</v>
+      </c>
+      <c r="GQ1000" t="s">
+        <v>9</v>
+      </c>
+      <c r="GR1000" t="s">
+        <v>10</v>
+      </c>
+      <c r="GS1000" t="s">
+        <v>11</v>
+      </c>
+      <c r="GT1000" t="s">
+        <v>12</v>
+      </c>
+      <c r="GU1000" t="s">
+        <v>13</v>
+      </c>
+      <c r="GV1000" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1001" spans="189:204">
+      <c r="GG1001">
+        <v>0</v>
+      </c>
+      <c r="GH1001">
+        <v>0</v>
+      </c>
+      <c r="GI1001" t="s">
+        <v>15</v>
+      </c>
+      <c r="GJ1001">
+        <v>0</v>
+      </c>
+      <c r="GK1001">
+        <v>0</v>
+      </c>
+      <c r="GL1001">
+        <v>0</v>
+      </c>
+      <c r="GM1001" t="s">
+        <v>16</v>
+      </c>
+      <c r="GN1001">
+        <v>2</v>
+      </c>
+      <c r="GO1001">
         <v>1</v>
       </c>
-      <c r="M40">
-        <v>-1500</v>
-      </c>
-      <c r="N40">
-        <f>T39</f>
-        <v>-1500</v>
-      </c>
-    </row>
-    <row r="41" spans="5:20">
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f>MAX(J37,J45)</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="43" spans="5:20">
-      <c r="I43" t="str">
-        <f>E9</f>
-        <v>不推新品</v>
-      </c>
-    </row>
-    <row r="44" spans="5:20">
-      <c r="T44">
-        <f>SUM(I45,E41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:20">
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f>T44</f>
-        <v>0</v>
+      <c r="GP1001">
+        <v>2</v>
+      </c>
+      <c r="GQ1001">
+        <v>0</v>
+      </c>
+      <c r="GR1001">
+        <v>0</v>
+      </c>
+      <c r="GS1001">
+        <v>0</v>
+      </c>
+      <c r="GT1001">
+        <v>26</v>
+      </c>
+      <c r="GU1001">
+        <v>1</v>
+      </c>
+      <c r="GV1001" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="189:204">
-      <c r="GH1002" t="s">
-        <v>0</v>
-      </c>
-      <c r="GI1002" t="s">
+      <c r="GG1002">
+        <v>0</v>
+      </c>
+      <c r="GH1002">
         <v>1</v>
       </c>
-      <c r="GJ1002" t="s">
+      <c r="GK1002">
+        <v>0</v>
+      </c>
+      <c r="GL1002">
+        <v>0</v>
+      </c>
+      <c r="GM1002" t="s">
+        <v>19</v>
+      </c>
+      <c r="GN1002">
         <v>2</v>
       </c>
-      <c r="GK1002" t="s">
+      <c r="GO1002">
         <v>3</v>
       </c>
-      <c r="GL1002" t="s">
+      <c r="GP1002">
         <v>4</v>
       </c>
-      <c r="GM1002" t="s">
+      <c r="GQ1002">
+        <v>0</v>
+      </c>
+      <c r="GR1002">
+        <v>0</v>
+      </c>
+      <c r="GS1002">
+        <v>0</v>
+      </c>
+      <c r="GT1002">
+        <v>15</v>
+      </c>
+      <c r="GU1002">
         <v>5</v>
       </c>
-      <c r="GN1002" t="s">
-        <v>6</v>
-      </c>
-      <c r="GO1002" t="s">
-        <v>7</v>
-      </c>
-      <c r="GP1002" t="s">
-        <v>8</v>
-      </c>
-      <c r="GQ1002" t="s">
-        <v>9</v>
-      </c>
-      <c r="GR1002" t="s">
-        <v>10</v>
-      </c>
-      <c r="GS1002" t="s">
-        <v>11</v>
-      </c>
-      <c r="GT1002" t="s">
-        <v>12</v>
-      </c>
-      <c r="GU1002" t="s">
-        <v>13</v>
-      </c>
-      <c r="GV1002" t="s">
-        <v>14</v>
+      <c r="GV1002" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="189:204">
@@ -9885,13 +11384,7 @@
         <v>0</v>
       </c>
       <c r="GH1003">
-        <v>0</v>
-      </c>
-      <c r="GI1003" t="s">
-        <v>15</v>
-      </c>
-      <c r="GJ1003">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GK1003">
         <v>0</v>
@@ -9906,10 +11399,10 @@
         <v>2</v>
       </c>
       <c r="GO1003">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="GP1003">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="GQ1003">
         <v>0</v>
@@ -9921,10 +11414,10 @@
         <v>0</v>
       </c>
       <c r="GT1003">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="GU1003">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="GV1003" t="b">
         <v>1</v>
@@ -9935,25 +11428,22 @@
         <v>0</v>
       </c>
       <c r="GH1004">
+        <v>3</v>
+      </c>
+      <c r="GL1004">
         <v>1</v>
       </c>
-      <c r="GK1004">
-        <v>0</v>
-      </c>
-      <c r="GL1004">
-        <v>0</v>
-      </c>
       <c r="GM1004" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="GN1004">
         <v>2</v>
       </c>
       <c r="GO1004">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="GP1004">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="GQ1004">
         <v>0</v>
@@ -9965,10 +11455,10 @@
         <v>0</v>
       </c>
       <c r="GT1004">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="GU1004">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="GV1004" t="b">
         <v>1</v>
@@ -9976,16 +11466,13 @@
     </row>
     <row r="1005" spans="189:204">
       <c r="GG1005">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GH1005">
-        <v>2</v>
-      </c>
-      <c r="GK1005">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GL1005">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM1005" t="s">
         <v>16</v>
@@ -10009,10 +11496,10 @@
         <v>0</v>
       </c>
       <c r="GT1005">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="GU1005">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="GV1005" t="b">
         <v>1</v>
@@ -10020,25 +11507,28 @@
     </row>
     <row r="1006" spans="189:204">
       <c r="GG1006">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GH1006">
+        <v>5</v>
+      </c>
+      <c r="GK1006">
+        <v>0</v>
+      </c>
+      <c r="GL1006">
         <v>3</v>
       </c>
-      <c r="GL1006">
-        <v>1</v>
-      </c>
       <c r="GM1006" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="GN1006">
         <v>2</v>
       </c>
       <c r="GO1006">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="GP1006">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="GQ1006">
         <v>0</v>
@@ -10050,10 +11540,10 @@
         <v>0</v>
       </c>
       <c r="GT1006">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="GU1006">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="GV1006" t="b">
         <v>1</v>
@@ -10064,22 +11554,25 @@
         <v>0</v>
       </c>
       <c r="GH1007">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="GK1007">
+        <v>0</v>
       </c>
       <c r="GL1007">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GM1007" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="GN1007">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GO1007">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="GP1007">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="GQ1007">
         <v>0</v>
@@ -10091,10 +11584,10 @@
         <v>0</v>
       </c>
       <c r="GT1007">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="GU1007">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="GV1007" t="b">
         <v>1</v>
@@ -10102,43 +11595,40 @@
     </row>
     <row r="1008" spans="189:204">
       <c r="GG1008">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="GH1008">
+        <v>7</v>
+      </c>
+      <c r="GL1008">
         <v>5</v>
       </c>
-      <c r="GK1008">
-        <v>0</v>
-      </c>
-      <c r="GL1008">
-        <v>3</v>
-      </c>
       <c r="GM1008" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="GN1008">
+        <v>0</v>
+      </c>
+      <c r="GO1008">
+        <v>0</v>
+      </c>
+      <c r="GP1008">
+        <v>0</v>
+      </c>
+      <c r="GQ1008">
+        <v>0</v>
+      </c>
+      <c r="GR1008">
+        <v>0</v>
+      </c>
+      <c r="GS1008">
+        <v>0</v>
+      </c>
+      <c r="GT1008">
         <v>2</v>
       </c>
-      <c r="GO1008">
-        <v>13</v>
-      </c>
-      <c r="GP1008">
-        <v>14</v>
-      </c>
-      <c r="GQ1008">
-        <v>0</v>
-      </c>
-      <c r="GR1008">
-        <v>0</v>
-      </c>
-      <c r="GS1008">
-        <v>0</v>
-      </c>
-      <c r="GT1008">
-        <v>4</v>
-      </c>
       <c r="GU1008">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="GV1008" t="b">
         <v>1</v>
@@ -10146,16 +11636,13 @@
     </row>
     <row r="1009" spans="189:204">
       <c r="GG1009">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="GH1009">
-        <v>6</v>
-      </c>
-      <c r="GK1009">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="GL1009">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="GM1009" t="s">
         <v>17</v>
@@ -10179,10 +11666,10 @@
         <v>0</v>
       </c>
       <c r="GT1009">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="GU1009">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="GV1009" t="b">
         <v>1</v>
@@ -10190,10 +11677,10 @@
     </row>
     <row r="1010" spans="189:204">
       <c r="GG1010">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="GH1010">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="GK1010">
         <v>0</v>
@@ -10202,16 +11689,16 @@
         <v>4</v>
       </c>
       <c r="GM1010" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="GN1010">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GO1010">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="GP1010">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="GQ1010">
         <v>0</v>
@@ -10223,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="GT1010">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="GU1010">
         <v>13</v>
@@ -10234,10 +11721,10 @@
     </row>
     <row r="1011" spans="189:204">
       <c r="GG1011">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="GH1011">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="GK1011">
         <v>0</v>
@@ -10267,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="GT1011">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="GU1011">
         <v>13</v>
@@ -10277,26 +11764,26 @@
       </c>
     </row>
     <row r="1012" spans="189:204">
+      <c r="GG1012">
+        <v>15</v>
+      </c>
       <c r="GH1012">
+        <v>11</v>
+      </c>
+      <c r="GL1012">
         <v>9</v>
       </c>
-      <c r="GK1012">
-        <v>0</v>
-      </c>
-      <c r="GL1012">
-        <v>2</v>
-      </c>
       <c r="GM1012" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="GN1012">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GO1012">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="GP1012">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="GQ1012">
         <v>0</v>
@@ -10308,24 +11795,24 @@
         <v>0</v>
       </c>
       <c r="GT1012">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="GU1012">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="GV1012" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="1013" spans="189:204">
+      <c r="GG1013">
+        <v>16</v>
+      </c>
       <c r="GH1013">
-        <v>10</v>
-      </c>
-      <c r="GK1013">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="GL1013">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="GM1013" t="s">
         <v>17</v>
@@ -10349,10 +11836,10 @@
         <v>0</v>
       </c>
       <c r="GT1013">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="GU1013">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="GV1013" t="b">
         <v>1</v>
@@ -10360,37 +11847,40 @@
     </row>
     <row r="1014" spans="189:204">
       <c r="GH1014">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="GK1014">
+        <v>0</v>
       </c>
       <c r="GL1014">
+        <v>2</v>
+      </c>
+      <c r="GM1014" t="s">
+        <v>19</v>
+      </c>
+      <c r="GN1014">
+        <v>2</v>
+      </c>
+      <c r="GO1014">
+        <v>15</v>
+      </c>
+      <c r="GP1014">
+        <v>16</v>
+      </c>
+      <c r="GQ1014">
+        <v>0</v>
+      </c>
+      <c r="GR1014">
+        <v>0</v>
+      </c>
+      <c r="GS1014">
+        <v>0</v>
+      </c>
+      <c r="GT1014">
+        <v>34</v>
+      </c>
+      <c r="GU1014">
         <v>9</v>
-      </c>
-      <c r="GM1014" t="s">
-        <v>17</v>
-      </c>
-      <c r="GN1014">
-        <v>0</v>
-      </c>
-      <c r="GO1014">
-        <v>0</v>
-      </c>
-      <c r="GP1014">
-        <v>0</v>
-      </c>
-      <c r="GQ1014">
-        <v>0</v>
-      </c>
-      <c r="GR1014">
-        <v>0</v>
-      </c>
-      <c r="GS1014">
-        <v>0</v>
-      </c>
-      <c r="GT1014">
-        <v>27</v>
-      </c>
-      <c r="GU1014">
-        <v>13</v>
       </c>
       <c r="GV1014" t="b">
         <v>1</v>
@@ -10398,10 +11888,13 @@
     </row>
     <row r="1015" spans="189:204">
       <c r="GH1015">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="GK1015">
+        <v>0</v>
       </c>
       <c r="GL1015">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="GM1015" t="s">
         <v>17</v>
@@ -10425,10 +11918,10 @@
         <v>0</v>
       </c>
       <c r="GT1015">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="GU1015">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="GV1015" t="b">
         <v>1</v>
@@ -10436,10 +11929,10 @@
     </row>
     <row r="1016" spans="189:204">
       <c r="GH1016">
+        <v>15</v>
+      </c>
+      <c r="GL1016">
         <v>13</v>
-      </c>
-      <c r="GL1016">
-        <v>5</v>
       </c>
       <c r="GM1016" t="s">
         <v>17</v>
@@ -10463,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="GT1016">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="GU1016">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="GV1016" t="b">
         <v>1</v>
@@ -10474,10 +11967,10 @@
     </row>
     <row r="1017" spans="189:204">
       <c r="GH1017">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="GL1017">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="GM1017" t="s">
         <v>17</v>
@@ -10501,17 +11994,17 @@
         <v>0</v>
       </c>
       <c r="GT1017">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="GU1017">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="GV1017" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -10519,16 +12012,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>4000</v>
+      </c>
+      <c r="D4">
+        <v>-1500</v>
+      </c>
+      <c r="F4" s="45">
+        <f>SUMPRODUCT(C4:D4,C6:D6)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="45">
+        <f>SUMPRODUCT(C5:D5,C6:D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="45">
+        <f>MAX(C4:C5)</f>
+        <v>4000</v>
+      </c>
+      <c r="D8" s="45">
+        <f>MAX(D4:D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="45">
+        <f>SUMPRODUCT(C8:D8,C6:D6)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <f>C11-F4</f>
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8:D8" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/MS/张渊_1501220101_第8次习题作业_12.26_12.29.xlsx
+++ b/MS/张渊_1501220101_第8次习题作业_12.26_12.29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="12.26" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -262,6 +262,25 @@
   </si>
   <si>
     <t>EPVI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本信息期望价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获利变动</t>
+  </si>
+  <si>
+    <t>损失变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7967,7 +7986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GV1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -10663,10 +10682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:GV1017"/>
+  <dimension ref="A2:GV1017"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10992,24 +11011,24 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="49" spans="3:21">
+    <row r="49" spans="1:21">
       <c r="N49">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="3:21">
+    <row r="50" spans="1:21">
       <c r="N50" t="str">
         <f>B5</f>
         <v>成功</v>
       </c>
     </row>
-    <row r="51" spans="3:21">
+    <row r="51" spans="1:21">
       <c r="U51">
         <f>SUM(N52,J54,F58)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="52" spans="3:21">
+    <row r="52" spans="1:21">
       <c r="J52" t="str">
         <f>C5</f>
         <v>推新品</v>
@@ -11023,7 +11042,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="54" spans="3:21">
+    <row r="54" spans="1:21">
       <c r="J54">
         <v>0</v>
       </c>
@@ -11035,13 +11054,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="3:21">
+    <row r="55" spans="1:21">
       <c r="N55" t="str">
         <f>B6</f>
         <v>不成功</v>
       </c>
     </row>
-    <row r="56" spans="3:21">
+    <row r="56" spans="1:21">
       <c r="F56" t="str">
         <f>C4</f>
         <v>不试销</v>
@@ -11051,7 +11070,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="57" spans="3:21">
+    <row r="57" spans="1:21">
       <c r="H57">
         <f>IF(G58=K54,1,IF(G58=K62,2))</f>
         <v>1</v>
@@ -11065,7 +11084,7 @@
         <v>-1500</v>
       </c>
     </row>
-    <row r="58" spans="3:21">
+    <row r="58" spans="1:21">
       <c r="F58">
         <v>0</v>
       </c>
@@ -11074,19 +11093,19 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="60" spans="3:21">
+    <row r="60" spans="1:21">
       <c r="J60" t="str">
         <f>C6</f>
         <v>不推新品</v>
       </c>
     </row>
-    <row r="61" spans="3:21">
+    <row r="61" spans="1:21">
       <c r="U61">
         <f>SUM(J62,F58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:21">
+    <row r="62" spans="1:21">
       <c r="J62">
         <v>0</v>
       </c>
@@ -11095,147 +11114,419 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:21">
-      <c r="C64" t="str">
+    <row r="63" spans="1:21">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65">
+        <f>G35+G3-G58</f>
+        <v>162.77500000000009</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="C68" t="str">
         <f>C11</f>
         <v>不试销</v>
       </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65">
-        <v>50</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="dataTable" ref="C65:C81" dt2D="0" dtr="0" r1="G3"/>
+      <c r="G68" t="str">
+        <f>C11</f>
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69">
+        <v>3000</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="dataTable" ref="C69:C89" dt2D="0" dtr="0" r1="G4"/>
         <v>试销</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66">
-        <v>60</v>
-      </c>
-      <c r="C66" t="str">
-        <v>试销</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67">
-        <v>70</v>
-      </c>
-      <c r="C67" t="str">
-        <v>试销</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68">
-        <v>80</v>
-      </c>
-      <c r="C68" t="str">
-        <v>试销</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69">
-        <v>90</v>
-      </c>
-      <c r="C69" t="str">
-        <v>试销</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
+      <c r="F69">
+        <v>1125</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="dataTable" ref="G69:G99" dt2D="0" dtr="0" r1="G5" ca="1"/>
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="B70">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="C70" t="str">
         <v>试销</v>
       </c>
-    </row>
-    <row r="71" spans="2:3">
+      <c r="F70">
+        <v>1150</v>
+      </c>
+      <c r="G70" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="B71">
-        <v>110</v>
+        <v>3200</v>
       </c>
       <c r="C71" t="str">
         <v>试销</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
+      <c r="F71">
+        <v>1175</v>
+      </c>
+      <c r="G71" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="B72">
-        <v>120</v>
+        <v>3300</v>
       </c>
       <c r="C72" t="str">
         <v>试销</v>
       </c>
-    </row>
-    <row r="73" spans="2:3">
+      <c r="F72">
+        <v>1200</v>
+      </c>
+      <c r="G72" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="B73">
-        <v>130</v>
+        <v>3400</v>
       </c>
       <c r="C73" t="str">
         <v>试销</v>
       </c>
-    </row>
-    <row r="74" spans="2:3">
+      <c r="F73">
+        <v>1225</v>
+      </c>
+      <c r="G73" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="B74">
-        <v>140</v>
+        <v>3500</v>
       </c>
       <c r="C74" t="str">
         <v>试销</v>
       </c>
-    </row>
-    <row r="75" spans="2:3">
+      <c r="F74">
+        <v>1250</v>
+      </c>
+      <c r="G74" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="B75">
-        <v>150</v>
+        <v>3600</v>
       </c>
       <c r="C75" t="str">
         <v>试销</v>
       </c>
-    </row>
-    <row r="76" spans="2:3">
+      <c r="F75">
+        <v>1275</v>
+      </c>
+      <c r="G75" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="B76">
-        <v>160</v>
+        <v>3700</v>
       </c>
       <c r="C76" t="str">
-        <v>试销</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
+        <v>不试销</v>
+      </c>
+      <c r="F76">
+        <v>1300</v>
+      </c>
+      <c r="G76" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="B77">
-        <v>170</v>
+        <v>3800</v>
       </c>
       <c r="C77" t="str">
         <v>不试销</v>
       </c>
-    </row>
-    <row r="78" spans="2:3">
+      <c r="F77">
+        <v>1325</v>
+      </c>
+      <c r="G77" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="B78">
-        <v>180</v>
+        <v>3900</v>
       </c>
       <c r="C78" t="str">
         <v>不试销</v>
       </c>
-    </row>
-    <row r="79" spans="2:3">
+      <c r="F78">
+        <v>1350</v>
+      </c>
+      <c r="G78" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="B79">
-        <v>190</v>
+        <v>4000</v>
       </c>
       <c r="C79" t="str">
         <v>不试销</v>
       </c>
-    </row>
-    <row r="80" spans="2:3">
+      <c r="F79">
+        <v>1375</v>
+      </c>
+      <c r="G79" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="B80">
-        <v>200</v>
+        <v>4100</v>
       </c>
       <c r="C80" t="str">
         <v>不试销</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="F80">
+        <v>1400</v>
+      </c>
+      <c r="G80" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81">
-        <v>210</v>
+        <v>4200</v>
       </c>
       <c r="C81" t="str">
         <v>不试销</v>
+      </c>
+      <c r="F81">
+        <v>1425</v>
+      </c>
+      <c r="G81" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82">
+        <v>4300</v>
+      </c>
+      <c r="C82" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F82">
+        <v>1450</v>
+      </c>
+      <c r="G82" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83">
+        <v>4400</v>
+      </c>
+      <c r="C83" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F83">
+        <v>1475</v>
+      </c>
+      <c r="G83" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84">
+        <v>4500</v>
+      </c>
+      <c r="C84" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F84">
+        <v>1500</v>
+      </c>
+      <c r="G84" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85">
+        <v>4600</v>
+      </c>
+      <c r="C85" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F85">
+        <v>1525</v>
+      </c>
+      <c r="G85" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86">
+        <v>4700</v>
+      </c>
+      <c r="C86" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F86">
+        <v>1550</v>
+      </c>
+      <c r="G86" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87">
+        <v>4800</v>
+      </c>
+      <c r="C87" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F87">
+        <v>1575</v>
+      </c>
+      <c r="G87" t="str">
+        <v>不试销</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88">
+        <v>4900</v>
+      </c>
+      <c r="C88" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F88">
+        <v>1600</v>
+      </c>
+      <c r="G88" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89">
+        <v>5000</v>
+      </c>
+      <c r="C89" t="str">
+        <v>不试销</v>
+      </c>
+      <c r="F89">
+        <v>1625</v>
+      </c>
+      <c r="G89" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="F90">
+        <v>1650</v>
+      </c>
+      <c r="G90" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="F91">
+        <v>1675</v>
+      </c>
+      <c r="G91" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="F92">
+        <v>1700</v>
+      </c>
+      <c r="G92" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="F93">
+        <v>1725</v>
+      </c>
+      <c r="G93" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="F94">
+        <v>1750</v>
+      </c>
+      <c r="G94" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="F95">
+        <v>1775</v>
+      </c>
+      <c r="G95" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="F96">
+        <v>1800</v>
+      </c>
+      <c r="G96" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97">
+        <v>1825</v>
+      </c>
+      <c r="G97" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98">
+        <v>1850</v>
+      </c>
+      <c r="G98" t="str">
+        <v>试销</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7">
+      <c r="F99">
+        <v>1875</v>
+      </c>
+      <c r="G99" t="str">
+        <v>试销</v>
       </c>
     </row>
     <row r="1000" spans="189:204">
